--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC7E35-9603-4370-8B38-C4F5482074A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8EFBC-46DB-42C3-BF40-9470E18326A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F932F431-93C8-4BBE-AE95-33AB0A8122C4}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Category</t>
   </si>
@@ -51,9 +52,6 @@
     <t>The Complete Vue JS Developer Course – inc. Vue JS 2!</t>
   </si>
   <si>
-    <t>Get certificate</t>
-  </si>
-  <si>
     <t>Share</t>
   </si>
   <si>
@@ -63,7 +61,28 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Screenshot</t>
+    <t>https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/learn/lecture/15436972#notes</t>
+  </si>
+  <si>
+    <t>How to set heroku environment</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Validations in VueJS
+Sockets in VueJS for chat
+Pagination in VueJS
+Using VUEX
+Using heroku
+Using load more feature 
+How to use passport authentication
+How to use JWT authentication
+How to use REST on Backend
+Using models in Mongoose</t>
   </si>
 </sst>
 </file>
@@ -93,13 +112,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,9 +167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,11 +182,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -184,55 +210,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8725655</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1714500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7555940E-F253-4649-9FF9-53DAB10E2618}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16802100" y="457200"/>
-          <a:ext cx="8718035" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,18 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E9DAEE-9ABD-4455-AD4E-D25735D86610}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.21875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="132" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,13 +528,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -571,69 +542,102 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="notes" display="https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/learn/lecture/15412470?start=710 - notes" xr:uid="{6A9840A3-8DCF-44B1-AA7F-7B9F2FCD8CF0}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/" xr:uid="{06575AB1-ECB0-42C2-A847-08374B7BF1FA}"/>
+    <hyperlink ref="B3" r:id="rId3" location="notes" display="https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/learn/lecture/15436972 - notes" xr:uid="{F436B1BF-1592-4DD1-BDEF-992DCDF38F37}"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/" xr:uid="{BB9E49C0-5943-472D-88B5-3F52D7C57FCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6919BB7-9843-44B0-80EA-963680E46265}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="65" defaultRowHeight="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.udemy.com/course/vue-js-2-the-full-guide-by-real-apps-vuex-router-node/" xr:uid="{794F53E6-A0AF-4BF1-A70A-3095B9AA92C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>